--- a/CI/Excel/data.xlsx
+++ b/CI/Excel/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Registration" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -30,7 +30,22 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">svvev</t>
+    <t xml:space="preserve">aelsam2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ael199710*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhas</t>
   </si>
 </sst>
 </file>
@@ -40,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -61,6 +76,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,8 +131,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,8 +163,56 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="aelsam2@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -141,49 +223,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
